--- a/medicine/Pharmacie/Agence_française_de_sécurité_sanitaire/Agence_française_de_sécurité_sanitaire.xlsx
+++ b/medicine/Pharmacie/Agence_française_de_sécurité_sanitaire/Agence_française_de_sécurité_sanitaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agence_fran%C3%A7aise_de_s%C3%A9curit%C3%A9_sanitaire</t>
+          <t>Agence_française_de_sécurité_sanitaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les agences françaises de sécurité sanitaire (AFSS) sont des établissements publics français dont la mission principale est d’évaluer les risques sanitaires.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agence_fran%C3%A7aise_de_s%C3%A9curit%C3%A9_sanitaire</t>
+          <t>Agence_française_de_sécurité_sanitaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Agences, organismes et autorités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En 2016, ces agences sont :
 Agence de la biomédecine (ABM)
@@ -521,7 +535,7 @@
 Haut Conseil de la santé publique (HCSP)
 Haute Autorité de santé (HAS)
 Institut national du cancer (INCa)
-Agence nationale de santé publique[1]
+Agence nationale de santé publique
 Institut de radioprotection et de sûreté nucléaire (IRSN)</t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agence_fran%C3%A7aise_de_s%C3%A9curit%C3%A9_sanitaire</t>
+          <t>Agence_française_de_sécurité_sanitaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Anciennes agences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Agence française de sécurité sanitaire de l'environnement
 Agence française de sécurité sanitaire de l'environnement et du travail
